--- a/source_code/data/st.xlsx
+++ b/source_code/data/st.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A55DC4-6279-4CAE-A86E-91BC15E9B3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3974C575-AF9F-4F7C-A5ED-16F61D9391FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.46500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="B2">
         <v>324328.679</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="B2">
         <v>319011.815</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.48499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="B2">
         <v>313694.95150000002</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="B2">
         <v>308378.08799999999</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.495</v>
+        <v>0.5</v>
       </c>
       <c r="B2">
         <v>303061.22450000001</v>

--- a/source_code/data/st.xlsx
+++ b/source_code/data/st.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3974C575-AF9F-4F7C-A5ED-16F61D9391FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12880E5C-6BB8-478C-8A51-D60E5CCDC436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>324328.679</v>
+        <v>356760.80000000005</v>
       </c>
       <c r="C2">
         <v>9.0787499999999994</v>
@@ -424,7 +424,8 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>319011.815</v>
+        <f>'2025'!B2*(1-0.2*0.2)</f>
+        <v>342490.36800000002</v>
       </c>
       <c r="C2">
         <v>9.0787499999999994</v>
@@ -459,7 +460,8 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>313694.95150000002</v>
+        <f>'2025'!B2*(1-0.2*0.4)</f>
+        <v>328219.93600000005</v>
       </c>
       <c r="C2">
         <v>9.0787499999999994</v>
@@ -494,7 +496,8 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>308378.08799999999</v>
+        <f>'2025'!B2*(1-0.2*0.6)</f>
+        <v>313949.50400000002</v>
       </c>
       <c r="C2">
         <v>9.0787499999999994</v>
@@ -529,7 +532,8 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>303061.22450000001</v>
+        <f>'2025'!B2*(1-0.2*0.8)</f>
+        <v>299679.07200000004</v>
       </c>
       <c r="C2">
         <v>9.0787499999999994</v>
@@ -564,7 +568,8 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>297744.36099999998</v>
+        <f>'2025'!B2*(1-0.2*1)</f>
+        <v>285408.64000000007</v>
       </c>
       <c r="C2">
         <v>9.0787499999999994</v>
